--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -4,37 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="12570"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="11925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
+    <t>Description</t>
   </si>
   <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>Test4</t>
   </si>
   <si>
@@ -48,13 +39,67 @@
   </si>
   <si>
     <t>LoginTest</t>
+  </si>
+  <si>
+    <t>FindFriendTest</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FindFriend</t>
+  </si>
+  <si>
+    <t>FriendName</t>
+  </si>
+  <si>
+    <t>PassWordChange</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>NewPassoword</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>UploadPic</t>
+  </si>
+  <si>
+    <t>Data_Flag</t>
+  </si>
+  <si>
+    <t>syed@hotmail.com</t>
+  </si>
+  <si>
+    <t>sami3092</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +114,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,36 +150,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,25 +178,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,72 +508,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -535,77 +582,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="11925" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +151,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -204,6 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,47 +565,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -584,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -41,9 +41,6 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>FindFriendTest</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>sami3092</t>
+  </si>
+  <si>
+    <t>addNewAddress</t>
   </si>
 </sst>
 </file>
@@ -228,17 +228,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,47 +565,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -633,25 +633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -689,17 +689,17 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,21 +715,21 @@
       <c r="B9" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,10 +748,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,10 +770,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -26,18 +26,12 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Test4</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Test5</t>
-  </si>
-  <si>
     <t>LoginTest</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>UploadPic</t>
-  </si>
-  <si>
     <t>Data_Flag</t>
   </si>
   <si>
@@ -93,6 +84,12 @@
   </si>
   <si>
     <t>addNewAddress</t>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+  </si>
+  <si>
+    <t>RegistrationTest</t>
   </si>
 </sst>
 </file>
@@ -541,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,16 +563,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
@@ -584,29 +581,202 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -645,41 +815,41 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +860,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11"/>
     </row>
@@ -699,24 +869,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -726,54 +896,54 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>RegistrationTest</t>
+  </si>
+  <si>
+    <t>AddToCart</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,14 +597,16 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>AddToCart</t>
+  </si>
+  <si>
+    <t>Checkout</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -233,6 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,13 +560,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -606,14 +612,16 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,160 +635,6 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -795,7 +649,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,12 +662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -864,10 +718,10 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -890,11 +744,11 @@
       <c r="B9" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>sami3092</t>
   </si>
   <si>
-    <t>addNewAddress</t>
-  </si>
-  <si>
     <t>ResetPassword</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Checkout</t>
+  </si>
+  <si>
+    <t>AddNewAddress</t>
   </si>
 </sst>
 </file>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
@@ -590,7 +590,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -599,7 +599,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -608,7 +608,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -617,24 +617,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>TCID</t>
   </si>
@@ -39,39 +39,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>FindFriend</t>
-  </si>
-  <si>
-    <t>FriendName</t>
-  </si>
-  <si>
-    <t>PassWordChange</t>
-  </si>
-  <si>
-    <t>OldPassword</t>
-  </si>
-  <si>
-    <t>NewPassoword</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Data_Flag</t>
@@ -225,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -240,9 +207,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +514,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +545,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
@@ -590,7 +554,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -599,7 +563,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -608,7 +572,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -617,7 +581,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -632,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -688,114 +652,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="11925"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="19760" windowHeight="11560"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -198,16 +203,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,7 +221,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,16 +555,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -570,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -579,16 +584,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -597,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -606,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -615,18 +620,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -638,16 +648,16 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -655,7 +665,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -697,19 +707,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -717,26 +727,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -747,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,6 +811,11 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="19760" windowHeight="11560"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19755" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -555,16 +555,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -575,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -584,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -593,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -602,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -611,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -620,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -648,16 +649,16 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -665,7 +666,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -679,7 +680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -693,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,19 +708,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -727,26 +728,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -757,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
